--- a/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/MOLLY MCNINCH pt 2.xlsx_with_dialog_acts.xlsx
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2713,12 +2713,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3967,12 +3967,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4195,12 +4195,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4651,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4879,12 +4879,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
